--- a/StructureDefinition-ext-R5-Medication.ingredient.xlsx
+++ b/StructureDefinition-ext-R5-Medication.ingredient.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -127,7 +127,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -463,8 +463,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:item.extension:concept.id</t>
@@ -486,7 +485,7 @@
     <t>preferred</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medication-codes-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-medication-codes-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:item.extension:reference</t>
@@ -501,8 +500,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:item.extension:reference.id</t>
@@ -517,7 +515,7 @@
     <t>Extension.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication)
 </t>
   </si>
   <si>
@@ -959,7 +957,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.69140625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="53.609375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
